--- a/data/trans_orig/IP1003-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1003-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E078F93B-FFDD-4E41-9A1A-C7C217716F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D575764-9D20-4DEC-8F49-D94923AD0E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8A8A8722-B018-4688-BF92-9A96E4854990}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{783E1A96-FC1C-4FC4-B380-CB7672D11FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -185,63 +242,6 @@
     <t>9,95%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
     <t>93,09%</t>
   </si>
   <si>
@@ -353,6 +353,60 @@
     <t>4,47%</t>
   </si>
   <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
     <t>92,69%</t>
   </si>
   <si>
@@ -407,60 +461,6 @@
     <t>9,27%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
     <t>92,3%</t>
   </si>
   <si>
@@ -554,6 +554,54 @@
     <t>3,35%</t>
   </si>
   <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
     <t>92,09%</t>
   </si>
   <si>
@@ -608,54 +656,6 @@
     <t>8,59%</t>
   </si>
   <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
     <t>94,82%</t>
   </si>
   <si>
@@ -755,6 +755,54 @@
     <t>0,78%</t>
   </si>
   <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
     <t>89,28%</t>
   </si>
   <si>
@@ -807,54 +855,6 @@
   </si>
   <si>
     <t>11,39%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
   </si>
   <si>
     <t>91,8%</t>
@@ -1294,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EA47F6-2F96-483D-BB1D-530B5C7A51A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767CF166-D2A3-4CFA-B430-F9BA5F2B741F}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1567,10 +1567,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>381</v>
+        <v>307</v>
       </c>
       <c r="D7" s="7">
-        <v>254537</v>
+        <v>202843</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1582,10 +1582,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>369</v>
+        <v>276</v>
       </c>
       <c r="I7" s="7">
-        <v>249157</v>
+        <v>185903</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1597,10 +1597,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>750</v>
+        <v>583</v>
       </c>
       <c r="N7" s="7">
-        <v>503694</v>
+        <v>388746</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1609,7 +1609,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,49 +1618,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>15198</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7">
-        <v>26961</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>16446</v>
+        <v>19319</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>43407</v>
+        <v>34517</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,10 +1669,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1684,10 +1684,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1699,10 +1699,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1716,55 +1716,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="D10" s="7">
-        <v>202843</v>
+        <v>254537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="I10" s="7">
-        <v>185903</v>
+        <v>249157</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>583</v>
+        <v>750</v>
       </c>
       <c r="N10" s="7">
-        <v>388746</v>
+        <v>503694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,46 +1773,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7">
+        <v>26961</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="7">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7">
+        <v>16446</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="7">
+        <v>66</v>
+      </c>
+      <c r="N11" s="7">
+        <v>43407</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="7">
-        <v>15198</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7">
-        <v>28</v>
-      </c>
-      <c r="I11" s="7">
-        <v>19319</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>51</v>
-      </c>
-      <c r="N11" s="7">
-        <v>34517</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -1824,10 +1824,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1839,10 +1839,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1854,10 +1854,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2040,7 +2040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA93BE6-97DD-485D-B3EE-3DCC1665875D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0BD482-0490-4849-B087-85C13E455D6D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,10 +2313,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>370</v>
+        <v>309</v>
       </c>
       <c r="D7" s="7">
-        <v>250585</v>
+        <v>223829</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>104</v>
@@ -2328,10 +2328,10 @@
         <v>106</v>
       </c>
       <c r="H7" s="7">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="I7" s="7">
-        <v>236367</v>
+        <v>216260</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>107</v>
@@ -2343,10 +2343,10 @@
         <v>109</v>
       </c>
       <c r="M7" s="7">
-        <v>707</v>
+        <v>612</v>
       </c>
       <c r="N7" s="7">
-        <v>486952</v>
+        <v>440089</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>110</v>
@@ -2364,10 +2364,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>19769</v>
+        <v>16271</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>113</v>
@@ -2379,10 +2379,10 @@
         <v>115</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>17835</v>
+        <v>11918</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>116</v>
@@ -2394,10 +2394,10 @@
         <v>118</v>
       </c>
       <c r="M8" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N8" s="7">
-        <v>37604</v>
+        <v>28189</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>119</v>
@@ -2415,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2430,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2445,10 +2445,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2462,16 +2462,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="D10" s="7">
-        <v>223829</v>
+        <v>250585</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>122</v>
@@ -2483,10 +2483,10 @@
         <v>124</v>
       </c>
       <c r="H10" s="7">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="I10" s="7">
-        <v>216260</v>
+        <v>236367</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>125</v>
@@ -2498,10 +2498,10 @@
         <v>127</v>
       </c>
       <c r="M10" s="7">
-        <v>612</v>
+        <v>707</v>
       </c>
       <c r="N10" s="7">
-        <v>440089</v>
+        <v>486952</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>128</v>
@@ -2519,10 +2519,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>16271</v>
+        <v>19769</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>131</v>
@@ -2534,10 +2534,10 @@
         <v>133</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>11918</v>
+        <v>17835</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>134</v>
@@ -2549,10 +2549,10 @@
         <v>136</v>
       </c>
       <c r="M11" s="7">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N11" s="7">
-        <v>28189</v>
+        <v>37604</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>137</v>
@@ -2570,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2585,10 +2585,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2600,10 +2600,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2647,7 +2647,7 @@
         <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>143</v>
@@ -2701,7 +2701,7 @@
         <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -2786,7 +2786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAD34DC-3224-4483-9393-5BBEAC4D55CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78541A6A-4F34-4AB0-B6D9-130C5912F71F}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3059,49 +3059,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D7" s="7">
-        <v>259343</v>
+        <v>237255</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>342</v>
+      </c>
+      <c r="I7" s="7">
+        <v>222257</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H7" s="7">
-        <v>354</v>
-      </c>
-      <c r="I7" s="7">
-        <v>253036</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>686</v>
+      </c>
+      <c r="N7" s="7">
+        <v>459512</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M7" s="7">
-        <v>706</v>
-      </c>
-      <c r="N7" s="7">
-        <v>512379</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,49 +3110,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>22286</v>
+        <v>12797</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="7">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7">
+        <v>13076</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="7">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7">
-        <v>14734</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>37</v>
+      </c>
+      <c r="N8" s="7">
+        <v>25873</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M8" s="7">
-        <v>50</v>
-      </c>
-      <c r="N8" s="7">
-        <v>37020</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,10 +3161,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3176,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3191,10 +3191,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3208,55 +3208,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D10" s="7">
-        <v>237255</v>
+        <v>259343</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>354</v>
+      </c>
+      <c r="I10" s="7">
+        <v>253036</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="7">
-        <v>342</v>
-      </c>
-      <c r="I10" s="7">
-        <v>222257</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>706</v>
+      </c>
+      <c r="N10" s="7">
+        <v>512379</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M10" s="7">
-        <v>686</v>
-      </c>
-      <c r="N10" s="7">
-        <v>459512</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,25 +3265,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>12797</v>
+        <v>22286</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>13076</v>
+        <v>14734</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>199</v>
@@ -3295,10 +3295,10 @@
         <v>201</v>
       </c>
       <c r="M11" s="7">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N11" s="7">
-        <v>25873</v>
+        <v>37020</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>202</v>
@@ -3316,10 +3316,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3331,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3346,10 +3346,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3532,7 +3532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F6D15F-E648-4038-97A8-482901F68A05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0F5D71-14B7-48FC-829F-4ACA6223BF86}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3805,10 +3805,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="D7" s="7">
-        <v>358738</v>
+        <v>192095</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>238</v>
@@ -3820,34 +3820,34 @@
         <v>240</v>
       </c>
       <c r="H7" s="7">
-        <v>423</v>
+        <v>268</v>
       </c>
       <c r="I7" s="7">
-        <v>323443</v>
+        <v>188614</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>523</v>
+      </c>
+      <c r="N7" s="7">
+        <v>380710</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="M7" s="7">
-        <v>849</v>
-      </c>
-      <c r="N7" s="7">
-        <v>682181</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,49 +3856,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>43071</v>
+        <v>12960</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8810</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H8" s="7">
-        <v>39</v>
-      </c>
-      <c r="I8" s="7">
-        <v>27365</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>28</v>
+      </c>
+      <c r="N8" s="7">
+        <v>21770</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="M8" s="7">
-        <v>91</v>
-      </c>
-      <c r="N8" s="7">
-        <v>70436</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,10 +3907,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>401809</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3922,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>280</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>197424</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3937,10 +3937,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>940</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>752617</v>
+        <v>402480</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3954,55 +3954,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>426</v>
+      </c>
+      <c r="D10" s="7">
+        <v>358738</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="7">
-        <v>192095</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>423</v>
+      </c>
+      <c r="I10" s="7">
+        <v>323443</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H10" s="7">
-        <v>268</v>
-      </c>
-      <c r="I10" s="7">
-        <v>188614</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>849</v>
+      </c>
+      <c r="N10" s="7">
+        <v>682181</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="M10" s="7">
-        <v>523</v>
-      </c>
-      <c r="N10" s="7">
-        <v>380710</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,28 +4011,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7">
-        <v>12960</v>
+        <v>43071</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>39</v>
+      </c>
+      <c r="I11" s="7">
+        <v>27365</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8810</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>267</v>
@@ -4041,10 +4041,10 @@
         <v>268</v>
       </c>
       <c r="M11" s="7">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="N11" s="7">
-        <v>21770</v>
+        <v>70436</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>269</v>
@@ -4062,10 +4062,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>401809</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4077,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>197424</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4092,10 +4092,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="N12" s="7">
-        <v>402480</v>
+        <v>752617</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4154,7 +4154,7 @@
         <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>279</v>
@@ -4208,7 +4208,7 @@
         <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1003-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1003-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D575764-9D20-4DEC-8F49-D94923AD0E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B99516-3789-4E08-B42A-23C27DBD91C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{783E1A96-FC1C-4FC4-B380-CB7672D11FF5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{802DA797-FA8D-4483-9522-93A95C8EEB75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="348">
   <si>
     <t>Menores según si padecen alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,841 +68,1021 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,5%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>93,9%</t>
   </si>
   <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
 </sst>
 </file>
@@ -913,7 +1093,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1009,39 +1189,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1093,7 +1273,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1204,13 +1384,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1219,6 +1392,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1283,19 +1463,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767CF166-D2A3-4CFA-B430-F9BA5F2B741F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00808E5-29B4-4DA9-8A14-0E131252E1ED}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1412,10 +1612,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>215354</v>
+        <v>3587</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1427,10 +1627,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>312</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>205322</v>
+        <v>1844</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1442,10 +1642,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>635</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>420675</v>
+        <v>5431</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1463,10 +1663,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D5" s="7">
-        <v>7807</v>
+        <v>117793</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1478,10 +1678,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>4874</v>
+        <v>104327</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1493,10 +1693,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>336</v>
       </c>
       <c r="N5" s="7">
-        <v>12682</v>
+        <v>222120</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1514,10 +1714,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1529,10 +1729,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1544,10 +1744,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1567,10 +1767,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>202843</v>
+        <v>14949</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1582,10 +1782,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>276</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>185903</v>
+        <v>16431</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1597,10 +1797,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>583</v>
+        <v>46</v>
       </c>
       <c r="N7" s="7">
-        <v>388746</v>
+        <v>31381</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1618,10 +1818,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>360</v>
       </c>
       <c r="D8" s="7">
-        <v>15198</v>
+        <v>238807</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1633,10 +1833,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="I8" s="7">
-        <v>19319</v>
+        <v>236774</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1648,10 +1848,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>51</v>
+        <v>715</v>
       </c>
       <c r="N8" s="7">
-        <v>34517</v>
+        <v>475580</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1669,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1684,10 +1884,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1699,10 +1899,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1722,10 +1922,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>381</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>254537</v>
+        <v>12476</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1737,10 +1937,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>369</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>249157</v>
+        <v>10982</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1752,19 +1952,19 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>750</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>503694</v>
+        <v>23458</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,10 +1973,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="D11" s="7">
-        <v>26961</v>
+        <v>129039</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1788,10 +1988,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="I11" s="7">
-        <v>16446</v>
+        <v>116566</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -1803,19 +2003,19 @@
         <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>66</v>
+        <v>367</v>
       </c>
       <c r="N11" s="7">
-        <v>43407</v>
+        <v>245605</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,10 +2024,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1839,10 +2039,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1854,10 +2054,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1871,55 +2071,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1011</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>672733</v>
+        <v>18954</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>957</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>640382</v>
+        <v>11382</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>1968</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>1313115</v>
+        <v>30336</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,49 +2128,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>49967</v>
+        <v>187095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="I14" s="7">
-        <v>40639</v>
+        <v>182715</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>136</v>
+        <v>550</v>
       </c>
       <c r="N14" s="7">
-        <v>90606</v>
+        <v>369810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,55 +2179,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>75</v>
+      </c>
+      <c r="D16" s="7">
+        <v>49967</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>61</v>
+      </c>
+      <c r="I16" s="7">
+        <v>40639</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>136</v>
+      </c>
+      <c r="N16" s="7">
+        <v>90606</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1011</v>
+      </c>
+      <c r="D17" s="7">
+        <v>672733</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7">
+        <v>957</v>
+      </c>
+      <c r="I17" s="7">
+        <v>640382</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1968</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1313115</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2040,8 +2401,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0BD482-0490-4849-B087-85C13E455D6D}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82AB459-423C-48C8-A4AA-642DE814E2DD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2057,7 +2418,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2158,49 +2519,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>228060</v>
+        <v>2059</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>331</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>220485</v>
+        <v>734</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>653</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>448544</v>
+        <v>2793</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,49 +2570,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7">
-        <v>9628</v>
+        <v>142454</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="I5" s="7">
-        <v>3436</v>
+        <v>145547</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>419</v>
       </c>
       <c r="N5" s="7">
-        <v>13064</v>
+        <v>288001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,10 +2621,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2275,10 +2636,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>223921</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2290,10 +2651,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>672</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>461608</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2313,49 +2674,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>309</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>223829</v>
+        <v>15907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>303</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>216260</v>
+        <v>9644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="M7" s="7">
-        <v>612</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>440089</v>
+        <v>25551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,49 +2725,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>348</v>
       </c>
       <c r="D8" s="7">
-        <v>16271</v>
+        <v>251194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="I8" s="7">
-        <v>11918</v>
+        <v>224205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>39</v>
+        <v>671</v>
       </c>
       <c r="N8" s="7">
-        <v>28189</v>
+        <v>475398</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,10 +2776,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2430,10 +2791,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>233849</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2445,10 +2806,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>707</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>500949</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2468,49 +2829,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>370</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>250585</v>
+        <v>14740</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>337</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>236367</v>
+        <v>9869</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>707</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>486952</v>
+        <v>24609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,49 +2880,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="D11" s="7">
-        <v>19769</v>
+        <v>143831</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="I11" s="7">
-        <v>17835</v>
+        <v>144965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>53</v>
+        <v>414</v>
       </c>
       <c r="N11" s="7">
-        <v>37604</v>
+        <v>288796</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,10 +2931,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2585,10 +2946,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2600,10 +2961,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2617,55 +2978,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1001</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>702474</v>
+        <v>12962</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>971</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>673112</v>
+        <v>12942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>1972</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>1375586</v>
+        <v>25904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,49 +3035,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="D14" s="7">
-        <v>45668</v>
+        <v>164995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="I14" s="7">
-        <v>33189</v>
+        <v>158395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>111</v>
+        <v>468</v>
       </c>
       <c r="N14" s="7">
-        <v>78857</v>
+        <v>323390</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,55 +3086,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45668</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7">
+        <v>33189</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" s="7">
+        <v>111</v>
+      </c>
+      <c r="N16" s="7">
+        <v>78857</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1001</v>
+      </c>
+      <c r="D17" s="7">
+        <v>702474</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="7">
+        <v>971</v>
+      </c>
+      <c r="I17" s="7">
+        <v>673112</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1972</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1375586</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1017</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706301</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2083</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1454443</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2786,8 +3308,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78541A6A-4F34-4AB0-B6D9-130C5912F71F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C961B0-CCDD-4B5C-8D0F-9569B95EE78B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2803,7 +3325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2904,49 +3426,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>316</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>209646</v>
+        <v>1302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
-        <v>319</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>196946</v>
+        <v>1789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
-        <v>635</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>406592</v>
+        <v>3091</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,49 +3477,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>3517</v>
+        <v>122862</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="I5" s="7">
-        <v>4322</v>
+        <v>129865</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="N5" s="7">
-        <v>7839</v>
+        <v>252727</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,10 +3528,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3021,10 +3543,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3036,10 +3558,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3059,49 +3581,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>344</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>237255</v>
+        <v>12185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
-        <v>342</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>222257</v>
+        <v>7010</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
-        <v>686</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>459512</v>
+        <v>19195</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,49 +3632,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="D8" s="7">
-        <v>12797</v>
+        <v>245876</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>322</v>
       </c>
       <c r="I8" s="7">
-        <v>13076</v>
+        <v>203507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
-        <v>37</v>
+        <v>684</v>
       </c>
       <c r="N8" s="7">
-        <v>25873</v>
+        <v>449383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,10 +3683,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3176,10 +3698,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3191,10 +3713,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3214,49 +3736,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>352</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>259343</v>
+        <v>12521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>253036</v>
+        <v>13718</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
-        <v>706</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>512379</v>
+        <v>26239</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,49 +3787,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="D11" s="7">
-        <v>22286</v>
+        <v>176051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="I11" s="7">
-        <v>14734</v>
+        <v>175181</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="N11" s="7">
-        <v>37020</v>
+        <v>351232</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,10 +3838,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3331,10 +3853,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3346,10 +3868,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3363,55 +3885,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1012</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>706244</v>
+        <v>12592</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>1015</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>672239</v>
+        <v>9616</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
-        <v>2027</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>1378483</v>
+        <v>22208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,49 +3942,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="D14" s="7">
-        <v>38600</v>
+        <v>161456</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="I14" s="7">
-        <v>32132</v>
+        <v>163685</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>99</v>
+        <v>450</v>
       </c>
       <c r="N14" s="7">
-        <v>70732</v>
+        <v>325140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,55 +3993,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38600</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="7">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7">
+        <v>32132</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M16" s="7">
+        <v>99</v>
+      </c>
+      <c r="N16" s="7">
+        <v>70732</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="7">
+        <v>706244</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I17" s="7">
+        <v>672239</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2027</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1378483</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3532,8 +4215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0F5D71-14B7-48FC-829F-4ACA6223BF86}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A372A870-D7E9-47B1-AA30-D62C464266D1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3549,7 +4232,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3650,49 +4333,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>113814</v>
+        <v>616</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>102357</v>
+        <v>328</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
-        <v>415</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>216172</v>
+        <v>944</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,49 +4384,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7">
-        <v>3348</v>
+        <v>57887</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="I5" s="7">
-        <v>819</v>
+        <v>56414</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="N5" s="7">
-        <v>4167</v>
+        <v>114300</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,10 +4435,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117162</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3767,10 +4450,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="I6" s="7">
-        <v>103176</v>
+        <v>56742</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3782,10 +4465,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>423</v>
+        <v>224</v>
       </c>
       <c r="N6" s="7">
-        <v>220339</v>
+        <v>115244</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3805,49 +4488,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>255</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>192095</v>
+        <v>8479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>188614</v>
+        <v>5561</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
-        <v>523</v>
+        <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>380710</v>
+        <v>14040</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,49 +4539,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="D8" s="7">
-        <v>12960</v>
+        <v>166044</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I8" s="7">
-        <v>8810</v>
+        <v>152360</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>120</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
-        <v>28</v>
+        <v>510</v>
       </c>
       <c r="N8" s="7">
-        <v>21770</v>
+        <v>318405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,10 +4590,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>174523</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3922,10 +4605,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="I9" s="7">
-        <v>197424</v>
+        <v>157921</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3937,10 +4620,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="N9" s="7">
-        <v>402480</v>
+        <v>332445</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3960,49 +4643,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>426</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>358738</v>
+        <v>16777</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
-        <v>423</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>323443</v>
+        <v>10771</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
-        <v>849</v>
+        <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>682181</v>
+        <v>27548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,49 +4694,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>43071</v>
+        <v>184800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>27365</v>
+        <v>165342</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="M11" s="7">
-        <v>91</v>
+        <v>442</v>
       </c>
       <c r="N11" s="7">
-        <v>70436</v>
+        <v>350142</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,10 +4745,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>401809</v>
+        <v>201577</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4077,10 +4760,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4092,10 +4775,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>940</v>
+        <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>752617</v>
+        <v>377690</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4109,55 +4792,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>900</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>664647</v>
+        <v>33507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
-        <v>887</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>614415</v>
+        <v>20334</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
-        <v>1787</v>
+        <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>1279063</v>
+        <v>53841</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,49 +4849,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="D14" s="7">
-        <v>59379</v>
+        <v>255917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="I14" s="7">
-        <v>36994</v>
+        <v>240299</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
-        <v>127</v>
+        <v>613</v>
       </c>
       <c r="N14" s="7">
-        <v>96373</v>
+        <v>496216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,55 +4900,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>74</v>
+      </c>
+      <c r="D16" s="7">
+        <v>59379</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="7">
+        <v>53</v>
+      </c>
+      <c r="I16" s="7">
+        <v>36994</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M16" s="7">
+        <v>127</v>
+      </c>
+      <c r="N16" s="7">
+        <v>96373</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>900</v>
+      </c>
+      <c r="D17" s="7">
+        <v>664647</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H17" s="7">
+        <v>887</v>
+      </c>
+      <c r="I17" s="7">
+        <v>614415</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1787</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1279063</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>974</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>724026</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>651409</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1914</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1375436</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1003-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1003-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B99516-3789-4E08-B42A-23C27DBD91C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5861AEBF-0E7B-4B1A-A35A-A9F8F6BC2952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{802DA797-FA8D-4483-9522-93A95C8EEB75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4062A961-1D6A-4A66-8605-3CC9E72F9DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="344">
   <si>
     <t>Menores según si padecen alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>1,74%</t>
@@ -89,16 +89,16 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>4,84%</t>
+    <t>5,26%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>97,04%</t>
   </si>
   <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>95,16%</t>
+    <t>94,74%</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -125,10 +125,10 @@
     <t>97,61%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,913 +140,904 @@
     <t>5,89%</t>
   </si>
   <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
     <t>90,21%</t>
   </si>
   <si>
     <t>87,72%</t>
   </si>
   <si>
-    <t>92,37%</t>
-  </si>
-  <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>4,34%</t>
   </si>
   <si>
     <t>7,01%</t>
@@ -1055,31 +1046,28 @@
     <t>5,94%</t>
   </si>
   <si>
-    <t>8,51%</t>
+    <t>8,35%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>95,66%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>91,49%</t>
+    <t>91,65%</t>
   </si>
   <si>
     <t>94,06%</t>
@@ -1494,7 +1482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00808E5-29B4-4DA9-8A14-0E131252E1ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5D6BE0-305B-4E3E-B275-91E8A14F0C7A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2271,7 +2259,7 @@
         <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>93</v>
@@ -2325,7 +2313,7 @@
         <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,7 +2389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82AB459-423C-48C8-A4AA-642DE814E2DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619CD7B7-530A-4D25-94BC-D93534B3B55E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2701,7 +2689,7 @@
         <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2710,13 +2698,13 @@
         <v>25551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2719,13 @@
         <v>251194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>323</v>
@@ -2746,13 +2734,13 @@
         <v>224205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>671</v>
@@ -2761,13 +2749,13 @@
         <v>475398</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2823,13 @@
         <v>14740</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2850,13 +2838,13 @@
         <v>9869</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2865,13 +2853,13 @@
         <v>24609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2874,13 @@
         <v>143831</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
         <v>206</v>
@@ -2901,13 +2889,13 @@
         <v>144965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>414</v>
@@ -2993,10 +2981,10 @@
         <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3005,13 +2993,13 @@
         <v>12942</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -3020,13 +3008,13 @@
         <v>25904</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3029,13 @@
         <v>164995</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
@@ -3056,13 +3044,13 @@
         <v>158395</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -3071,13 +3059,13 @@
         <v>323390</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3133,13 @@
         <v>45668</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -3160,13 +3148,13 @@
         <v>33189</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -3175,13 +3163,13 @@
         <v>78857</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3184,13 @@
         <v>702474</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>971</v>
@@ -3211,13 +3199,13 @@
         <v>673112</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>1972</v>
@@ -3226,13 +3214,13 @@
         <v>1375586</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,7 +3296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C961B0-CCDD-4B5C-8D0F-9569B95EE78B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A629621-DA5D-4D60-AD0C-88C32AFCE9C9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3325,7 +3313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3432,13 +3420,13 @@
         <v>1302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3447,13 +3435,13 @@
         <v>1789</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3462,13 +3450,13 @@
         <v>3091</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,10 +3471,10 @@
         <v>122862</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>118</v>
@@ -3498,13 +3486,13 @@
         <v>129865</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>393</v>
@@ -3513,13 +3501,13 @@
         <v>252727</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,10 +3748,10 @@
         <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -3772,13 +3760,13 @@
         <v>26239</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3781,13 @@
         <v>176051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
         <v>253</v>
@@ -3808,13 +3796,13 @@
         <v>175181</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
         <v>500</v>
@@ -3823,13 +3811,13 @@
         <v>351232</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3885,13 @@
         <v>12592</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3912,13 +3900,13 @@
         <v>9616</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3927,13 +3915,13 @@
         <v>22208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3936,13 @@
         <v>161456</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>232</v>
@@ -4055,10 +4043,10 @@
         <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4067,13 +4055,13 @@
         <v>32132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -4082,13 +4070,13 @@
         <v>70732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4091,13 @@
         <v>706244</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>1015</v>
@@ -4118,13 +4106,13 @@
         <v>672239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>2027</v>
@@ -4133,13 +4121,13 @@
         <v>1378483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,7 +4203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A372A870-D7E9-47B1-AA30-D62C464266D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE917705-E8E1-4167-AFC6-03D2432ACCCA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4232,7 +4220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4339,13 +4327,13 @@
         <v>616</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4354,13 +4342,13 @@
         <v>328</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4369,13 +4357,13 @@
         <v>944</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,10 +4378,10 @@
         <v>57887</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>118</v>
@@ -4405,10 +4393,10 @@
         <v>56414</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>118</v>
@@ -4420,10 +4408,10 @@
         <v>114300</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>118</v>
@@ -4494,13 +4482,13 @@
         <v>8479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>51</v>
+        <v>288</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -4509,13 +4497,13 @@
         <v>5561</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4524,13 +4512,13 @@
         <v>14040</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4533,13 @@
         <v>166044</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>249</v>
@@ -4560,13 +4548,13 @@
         <v>152360</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>510</v>
@@ -4575,13 +4563,13 @@
         <v>318405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4637,13 @@
         <v>16777</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4664,13 +4652,13 @@
         <v>10771</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>72</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4679,13 +4667,13 @@
         <v>27548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4688,13 @@
         <v>184800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>218</v>
@@ -4715,13 +4703,13 @@
         <v>165342</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>442</v>
@@ -4730,13 +4718,13 @@
         <v>350142</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>313</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4792,13 @@
         <v>33507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4819,13 +4807,13 @@
         <v>20334</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -4834,10 +4822,10 @@
         <v>53841</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>321</v>
@@ -4870,13 +4858,13 @@
         <v>240299</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
         <v>613</v>
@@ -4885,13 +4873,13 @@
         <v>496216</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>329</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4947,13 @@
         <v>59379</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4974,13 +4962,13 @@
         <v>36994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>127</v>
@@ -4989,13 +4977,13 @@
         <v>96373</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +4998,13 @@
         <v>664647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>887</v>
@@ -5025,13 +5013,13 @@
         <v>614415</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M17" s="7">
         <v>1787</v>
@@ -5040,13 +5028,13 @@
         <v>1279063</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1003-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1003-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5861AEBF-0E7B-4B1A-A35A-A9F8F6BC2952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B093EF9-8366-46AC-B9C2-9CF9756EEACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4062A961-1D6A-4A66-8605-3CC9E72F9DC5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6E114DCC-57E8-489D-BD3E-2AEDDC8E79BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según si padecen alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,940 +137,940 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
     <t>8,82%</t>
   </si>
   <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5D6BE0-305B-4E3E-B275-91E8A14F0C7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4DB201-2B38-4A34-BAB3-AC7FB0733CE7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,10 +1600,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>3587</v>
+        <v>1844</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1615,10 +1615,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1844</v>
+        <v>3587</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1651,10 +1651,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D5" s="7">
-        <v>117793</v>
+        <v>104327</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1666,10 +1666,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="I5" s="7">
-        <v>104327</v>
+        <v>117793</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1702,25 +1702,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1755,10 +1755,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>14949</v>
+        <v>16431</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1770,10 +1770,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>16431</v>
+        <v>14949</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1806,10 +1806,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D8" s="7">
-        <v>238807</v>
+        <v>236774</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1821,10 +1821,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="I8" s="7">
-        <v>236774</v>
+        <v>238807</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1857,25 +1857,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1910,10 +1910,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>12476</v>
+        <v>10982</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1925,10 +1925,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>10982</v>
+        <v>12476</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1949,10 +1949,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,34 +1961,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>174</v>
+      </c>
+      <c r="D11" s="7">
+        <v>116566</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>193</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>129039</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>174</v>
-      </c>
-      <c r="I11" s="7">
-        <v>116566</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>367</v>
@@ -1997,13 +1997,13 @@
         <v>245605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,25 +2012,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2059,40 +2059,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11382</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
         <v>29</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>18954</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11382</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -2101,13 +2101,13 @@
         <v>30336</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,34 +2116,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>269</v>
+      </c>
+      <c r="D14" s="7">
+        <v>182715</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>281</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>187095</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="7">
-        <v>269</v>
-      </c>
-      <c r="I14" s="7">
-        <v>182715</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>550</v>
@@ -2152,13 +2152,13 @@
         <v>369810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,25 +2167,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2220,34 +2220,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7">
+        <v>40639</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>75</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>49967</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>61</v>
-      </c>
-      <c r="I16" s="7">
-        <v>40639</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -2256,13 +2256,13 @@
         <v>90606</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,34 +2271,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>957</v>
+      </c>
+      <c r="D17" s="7">
+        <v>640382</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>1011</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>672733</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="7">
-        <v>957</v>
-      </c>
-      <c r="I17" s="7">
-        <v>640382</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1968</v>
@@ -2307,13 +2307,13 @@
         <v>1313115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,25 +2322,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619CD7B7-530A-4D25-94BC-D93534B3B55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D8DEF-E7D8-4C12-89E1-C71792E10EC0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2406,7 +2406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2507,34 +2507,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>734</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>2059</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>734</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2543,13 +2543,13 @@
         <v>2793</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,34 +2558,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>217</v>
+      </c>
+      <c r="D5" s="7">
+        <v>145547</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7">
         <v>202</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>142454</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="7">
-        <v>217</v>
-      </c>
-      <c r="I5" s="7">
-        <v>145547</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>419</v>
@@ -2594,13 +2594,13 @@
         <v>288001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,25 +2609,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2662,34 +2662,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9644</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
         <v>23</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>15907</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="7">
-        <v>13</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9644</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2698,13 +2698,13 @@
         <v>25551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,34 +2713,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>323</v>
+      </c>
+      <c r="D8" s="7">
+        <v>224205</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="7">
         <v>348</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>251194</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="7">
-        <v>323</v>
-      </c>
-      <c r="I8" s="7">
-        <v>224205</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>671</v>
@@ -2749,13 +2749,13 @@
         <v>475398</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,25 +2764,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>336</v>
+      </c>
+      <c r="D9" s="7">
+        <v>233849</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>336</v>
-      </c>
-      <c r="I9" s="7">
-        <v>233849</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2817,34 +2817,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9869</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="7">
         <v>20</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>14740</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9869</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2853,13 +2853,13 @@
         <v>24609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,34 +2868,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>206</v>
+      </c>
+      <c r="D11" s="7">
+        <v>144965</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="7">
         <v>208</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>143831</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="7">
-        <v>206</v>
-      </c>
-      <c r="I11" s="7">
-        <v>144965</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
         <v>414</v>
@@ -2904,13 +2904,13 @@
         <v>288796</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,25 +2919,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2966,40 +2966,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <v>12942</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="7">
         <v>19</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>12962</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" s="7">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12942</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -3008,13 +3008,13 @@
         <v>25904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,34 +3023,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>225</v>
+      </c>
+      <c r="D14" s="7">
+        <v>158395</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
         <v>243</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>164995</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7">
-        <v>225</v>
-      </c>
-      <c r="I14" s="7">
-        <v>158395</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -3059,13 +3059,13 @@
         <v>323390</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,25 +3074,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3127,34 +3127,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7">
+        <v>33189</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
         <v>65</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>45668</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="7">
-        <v>46</v>
-      </c>
-      <c r="I16" s="7">
-        <v>33189</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -3163,13 +3163,13 @@
         <v>78857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,34 +3178,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>971</v>
+      </c>
+      <c r="D17" s="7">
+        <v>673112</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="7">
         <v>1001</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>702474</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="7">
-        <v>971</v>
-      </c>
-      <c r="I17" s="7">
-        <v>673112</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>1972</v>
@@ -3214,13 +3214,13 @@
         <v>1375586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,25 +3229,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706301</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706301</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3296,7 +3296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A629621-DA5D-4D60-AD0C-88C32AFCE9C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E8E826-455F-47F0-945E-57CE26EF9579}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3313,7 +3313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3414,34 +3414,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1789</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1302</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1789</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3450,13 +3450,13 @@
         <v>3091</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,34 +3465,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>208</v>
+      </c>
+      <c r="D5" s="7">
+        <v>129865</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="7">
         <v>185</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>122862</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="J5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="7">
-        <v>129865</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>393</v>
@@ -3501,13 +3501,13 @@
         <v>252727</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,25 +3516,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3569,34 +3569,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7010</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="7">
         <v>18</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>12185</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7010</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3605,13 +3605,13 @@
         <v>19195</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,34 +3620,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>322</v>
+      </c>
+      <c r="D8" s="7">
+        <v>203507</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="7">
         <v>362</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>245876</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="7">
-        <v>322</v>
-      </c>
-      <c r="I8" s="7">
-        <v>203507</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
         <v>684</v>
@@ -3656,13 +3656,13 @@
         <v>449383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,25 +3671,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3724,34 +3724,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7">
+        <v>13718</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="7">
         <v>16</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>12521</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H10" s="7">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13718</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -3760,13 +3760,13 @@
         <v>26239</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,34 +3775,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>253</v>
+      </c>
+      <c r="D11" s="7">
+        <v>175181</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="7">
         <v>247</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>176051</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H11" s="7">
-        <v>253</v>
-      </c>
-      <c r="I11" s="7">
-        <v>175181</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>500</v>
@@ -3811,13 +3811,13 @@
         <v>351232</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,25 +3826,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3873,40 +3873,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9616</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="7">
         <v>17</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>12592</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9616</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3915,13 +3915,13 @@
         <v>22208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,34 +3930,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>232</v>
+      </c>
+      <c r="D14" s="7">
+        <v>163685</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" s="7">
         <v>218</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>161456</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H14" s="7">
-        <v>232</v>
-      </c>
-      <c r="I14" s="7">
-        <v>163685</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>450</v>
@@ -3966,13 +3966,13 @@
         <v>325140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,25 +3981,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4034,34 +4034,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7">
+        <v>32132</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="7">
         <v>53</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>38600</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H16" s="7">
-        <v>46</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32132</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -4070,13 +4070,13 @@
         <v>70732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,34 +4085,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="7">
+        <v>672239</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="7">
         <v>1012</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>706244</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>672239</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>2027</v>
@@ -4121,13 +4121,13 @@
         <v>1378483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,25 +4136,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4203,7 +4203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE917705-E8E1-4167-AFC6-03D2432ACCCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A6356C-34AD-43E6-9109-B4A18AA54D1C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4220,7 +4220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4324,46 +4324,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>616</v>
+        <v>314</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>328</v>
+        <v>596</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>944</v>
+        <v>910</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,49 +4372,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>107</v>
+      </c>
+      <c r="D5" s="7">
+        <v>56572</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7">
         <v>115</v>
       </c>
-      <c r="D5" s="7">
-        <v>57887</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="7">
-        <v>107</v>
-      </c>
       <c r="I5" s="7">
-        <v>56414</v>
+        <v>60848</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>222</v>
       </c>
       <c r="N5" s="7">
-        <v>114300</v>
+        <v>117420</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,25 +4423,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56886</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>108</v>
-      </c>
       <c r="I6" s="7">
-        <v>56742</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4456,7 +4456,7 @@
         <v>224</v>
       </c>
       <c r="N6" s="7">
-        <v>115244</v>
+        <v>118330</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4476,49 +4476,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5466</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H7" s="7">
         <v>13</v>
       </c>
-      <c r="D7" s="7">
-        <v>8479</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
       <c r="I7" s="7">
-        <v>5561</v>
+        <v>9310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>14040</v>
+        <v>14776</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4527,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D8" s="7">
-        <v>166044</v>
+        <v>153002</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>295</v>
@@ -4542,10 +4542,10 @@
         <v>296</v>
       </c>
       <c r="H8" s="7">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I8" s="7">
-        <v>152360</v>
+        <v>172453</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>297</v>
@@ -4560,13 +4560,13 @@
         <v>510</v>
       </c>
       <c r="N8" s="7">
-        <v>318405</v>
+        <v>325455</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>301</v>
@@ -4578,25 +4578,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>257</v>
+      </c>
+      <c r="D9" s="7">
+        <v>158468</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>274</v>
       </c>
-      <c r="D9" s="7">
-        <v>174523</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>257</v>
-      </c>
       <c r="I9" s="7">
-        <v>157921</v>
+        <v>181763</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4611,7 +4611,7 @@
         <v>531</v>
       </c>
       <c r="N9" s="7">
-        <v>332445</v>
+        <v>340231</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4631,10 +4631,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>16777</v>
+        <v>10451</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>302</v>
@@ -4646,34 +4646,34 @@
         <v>304</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>10771</v>
+        <v>18157</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>27548</v>
+        <v>28608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,49 +4682,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>218</v>
+      </c>
+      <c r="D11" s="7">
+        <v>162621</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="7">
         <v>224</v>
       </c>
-      <c r="D11" s="7">
-        <v>184800</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H11" s="7">
-        <v>218</v>
-      </c>
       <c r="I11" s="7">
-        <v>165342</v>
+        <v>193330</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>442</v>
       </c>
       <c r="N11" s="7">
-        <v>350142</v>
+        <v>355952</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,25 +4733,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>211487</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4766,7 +4766,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>377690</v>
+        <v>384560</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4780,55 +4780,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20372</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="7">
         <v>42</v>
       </c>
-      <c r="D13" s="7">
-        <v>33507</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
       <c r="I13" s="7">
-        <v>20334</v>
+        <v>34572</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>53841</v>
+        <v>54944</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,49 +4837,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>313</v>
+      </c>
+      <c r="D14" s="7">
+        <v>255086</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
         <v>300</v>
       </c>
-      <c r="D14" s="7">
-        <v>255917</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H14" s="7">
-        <v>313</v>
-      </c>
       <c r="I14" s="7">
-        <v>240299</v>
+        <v>270911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>25</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>613</v>
       </c>
       <c r="N14" s="7">
-        <v>496216</v>
+        <v>525996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4891,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4906,7 +4906,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4921,7 +4921,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4941,49 +4941,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7">
+        <v>36603</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H16" s="7">
         <v>74</v>
       </c>
-      <c r="D16" s="7">
-        <v>59379</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H16" s="7">
-        <v>53</v>
-      </c>
       <c r="I16" s="7">
-        <v>36994</v>
+        <v>62635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>127</v>
       </c>
       <c r="N16" s="7">
-        <v>96373</v>
+        <v>99238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>334</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,49 +4992,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>887</v>
+      </c>
+      <c r="D17" s="7">
+        <v>627281</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" s="7">
         <v>900</v>
       </c>
-      <c r="D17" s="7">
-        <v>664647</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H17" s="7">
-        <v>887</v>
-      </c>
       <c r="I17" s="7">
-        <v>614415</v>
+        <v>697543</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1787</v>
       </c>
       <c r="N17" s="7">
-        <v>1279063</v>
+        <v>1324824</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>343</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,25 +5043,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>940</v>
+      </c>
+      <c r="D18" s="7">
+        <v>663884</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>974</v>
       </c>
-      <c r="D18" s="7">
-        <v>724026</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>940</v>
-      </c>
       <c r="I18" s="7">
-        <v>651409</v>
+        <v>760178</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5076,7 +5076,7 @@
         <v>1914</v>
       </c>
       <c r="N18" s="7">
-        <v>1375436</v>
+        <v>1424062</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
